--- a/reports/resnet18_23_no_MMTM/prediction/8/probability_test_8.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/8/probability_test_8.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8751335144042969</v>
+        <v>0.8567960262298584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1248665153980255</v>
+        <v>0.143204003572464</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1576065719127655</v>
+        <v>0.1775470077991486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8423934578895569</v>
+        <v>0.8224530220031738</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9517996311187744</v>
+        <v>0.9544816613197327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04820037633180618</v>
+        <v>0.04551835358142853</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9602900147438049</v>
+        <v>0.9751976132392883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03971000015735626</v>
+        <v>0.02480239979922771</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2064125835895538</v>
+        <v>0.20802241563797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7935874462127686</v>
+        <v>0.7919776439666748</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7066023349761963</v>
+        <v>0.5298426747322083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2933977246284485</v>
+        <v>0.4701573550701141</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9124599695205688</v>
+        <v>0.8306231498718262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08754006028175354</v>
+        <v>0.1693768352270126</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08260994404554367</v>
+        <v>0.07740507274866104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9173901081085205</v>
+        <v>0.9225949048995972</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5972815752029419</v>
+        <v>0.3558090925216675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4027184247970581</v>
+        <v>0.6441909074783325</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0631110817193985</v>
+        <v>0.04287741705775261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9368889331817627</v>
+        <v>0.9571225643157959</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1924491077661514</v>
+        <v>0.1839991211891174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8075509071350098</v>
+        <v>0.8160008192062378</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2252532541751862</v>
+        <v>0.09881956875324249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7747467756271362</v>
+        <v>0.9011804461479187</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1024554446339607</v>
+        <v>0.05577871575951576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8975445628166199</v>
+        <v>0.9442212581634521</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2123379409313202</v>
+        <v>0.3395630717277527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7876620888710022</v>
+        <v>0.6604369282722473</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1870997548103333</v>
+        <v>0.1373856663703918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8129002451896667</v>
+        <v>0.8626142740249634</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.128376379609108</v>
+        <v>0.06782402098178864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8716235756874084</v>
+        <v>0.9321759939193726</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1112319678068161</v>
+        <v>0.1437053382396698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8887680172920227</v>
+        <v>0.8562946319580078</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1157757192850113</v>
+        <v>0.1157117858529091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8842242956161499</v>
+        <v>0.8842881917953491</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1182308495044708</v>
+        <v>0.1732337176799774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8817691802978516</v>
+        <v>0.8267663717269897</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4283264875411987</v>
+        <v>0.2528350949287415</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5716735124588013</v>
+        <v>0.7471648454666138</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4503235220909119</v>
+        <v>0.3560443818569183</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5496764779090881</v>
+        <v>0.6439555883407593</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
